--- a/presence/id.xlsx
+++ b/presence/id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skywe\Documents\GitHub\intelligent_teaching\presence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7361C1E-AE9B-49E3-AA9C-530F20BBCEED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951D3DE-6BB9-4D60-AE6B-2F5F3F97D1D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>甘赫</t>
   </si>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦世璇</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -646,9 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1086,6 +1092,14 @@
       </c>
       <c r="B54" s="5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>181234008</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
